--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_22_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_22_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77336.58226362689</v>
+        <v>14404354.47179649</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77336.58226362689</v>
+        <v>14404354.47179649</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6941.290868708964</v>
+        <v>781317.8159664166</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6941.290868708964</v>
+        <v>781317.8159664166</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189408257.185456</v>
+        <v>48854820.483968</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10172.99029305786</v>
+        <v>1158548.059812859</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19136.29685299933</v>
+        <v>2131950.099700337</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28099.60341294079</v>
+        <v>3105352.139587818</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37247.19874251752</v>
+        <v>4090138.615967018</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46340.12908979015</v>
+        <v>5064512.844221981</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>54939.18566177311</v>
+        <v>6017156.626364196</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>63743.24644236686</v>
+        <v>6991530.854619155</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>72547.30722296062</v>
+        <v>7965905.082874112</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>81230.44341299546</v>
+        <v>8881218.989391694</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>89694.82448311869</v>
+        <v>9849794.333180759</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>98089.24485735349</v>
+        <v>10810971.59304733</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>106492.730375182</v>
+        <v>11781875.90942556</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>114856.3856499048</v>
+        <v>12752961.89266989</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>123593.1224314418</v>
+        <v>13663772.92535826</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>132909.8354982515</v>
+        <v>14521003.34540862</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>375</v>
@@ -27055,10 +27055,10 @@
         <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>376</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>289</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>57</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
